--- a/データベース定義.xlsx
+++ b/データベース定義.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ss15304013\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\teamd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="2">
@@ -221,6 +221,10 @@
     <rPh sb="10" eb="12">
       <t>イミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -756,7 +760,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -880,6 +884,11 @@
       <c r="E7" s="5"/>
       <c r="F7" s="19">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">

--- a/データベース定義.xlsx
+++ b/データベース定義.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9110"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="14400" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="2">
@@ -225,6 +225,10 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサリだよぉ！！！！</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -416,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +480,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,27 +767,27 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -800,7 +807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -818,7 +825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -836,7 +843,7 @@
         <v>42410</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -851,8 +858,11 @@
       <c r="F5" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -868,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -886,18 +896,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -915,7 +925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -931,7 +941,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -947,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -966,7 +976,7 @@
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -975,7 +985,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -997,7 +1007,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1010,7 +1020,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/データベース定義.xlsx
+++ b/データベース定義.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="2">
@@ -225,6 +225,10 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -416,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +480,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,7 +767,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -929,6 +936,9 @@
       <c r="E11" s="3"/>
       <c r="F11" s="8" t="s">
         <v>35</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">

--- a/データベース定義.xlsx
+++ b/データベース定義.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="0" windowWidth="14400" windowHeight="9105"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="14400" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="2">
@@ -224,11 +224,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アサリだよぉ！！！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aあっちょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iいっちょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uうっちょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eえっちょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oおっちょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pぷっちょ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -420,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,6 +502,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,7 +793,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -859,7 +885,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -898,7 +924,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -906,6 +932,9 @@
         <v>15</v>
       </c>
       <c r="E9" s="2"/>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
@@ -923,6 +952,9 @@
       <c r="E10" s="11"/>
       <c r="F10" s="7" t="s">
         <v>4</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -940,6 +972,9 @@
       <c r="F11" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="G11" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -956,6 +991,9 @@
       <c r="F12" s="18">
         <v>1</v>
       </c>
+      <c r="G12" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
@@ -974,7 +1012,9 @@
       <c r="F13" s="18">
         <v>1</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>

--- a/データベース定義.xlsx
+++ b/データベース定義.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="14400" windowHeight="9105"/>
+    <workbookView xWindow="4185" yWindow="0" windowWidth="14400" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="2">
@@ -249,6 +249,10 @@
   </si>
   <si>
     <t>pぷっちょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pioi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -793,7 +797,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1023,7 +1027,9 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>

--- a/データベース定義.xlsx
+++ b/データベース定義.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="0" windowWidth="14400" windowHeight="9105"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="14400" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="2">
@@ -249,10 +249,6 @@
   </si>
   <si>
     <t>pぷっちょ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pioi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1027,9 +1023,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
